--- a/misc/Hand Calculation Checker 04.29.23.xlsx
+++ b/misc/Hand Calculation Checker 04.29.23.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brand\Documents\DA8\Projects\scooter-partner1-trolling-through-the-data\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{52E0EFA8-0AEA-4791-A34E-E49572B42A04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC0A66C0-9BD6-4355-8D70-0EE1E8014738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8085" yWindow="1995" windowWidth="17250" windowHeight="9990" xr2:uid="{DB16AED5-AFE7-472F-BC4A-A4354F8AF268}"/>
+    <workbookView xWindow="14700" yWindow="1725" windowWidth="13935" windowHeight="9990" xr2:uid="{DB16AED5-AFE7-472F-BC4A-A4354F8AF268}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
   <si>
     <t>LIME</t>
   </si>
@@ -50,9 +50,6 @@
     <t>Initial</t>
   </si>
   <si>
-    <t>per mile</t>
-  </si>
-  <si>
     <t>plus tax</t>
   </si>
   <si>
@@ -62,9 +59,6 @@
     <t>notes</t>
   </si>
   <si>
-    <t>3.50 min</t>
-  </si>
-  <si>
     <t>BOLT</t>
   </si>
   <si>
@@ -77,14 +71,58 @@
     <t>LYFT</t>
   </si>
   <si>
-    <t>total mileage</t>
+    <t>per min</t>
+  </si>
+  <si>
+    <t>trip duration</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>TOTAL $$</t>
+  </si>
+  <si>
+    <t>Per month</t>
+  </si>
+  <si>
+    <t>Per Day</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,17 +148,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -433,14 +476,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAEB9099-35D3-4311-8479-1B68F3A5152B}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="D12:E12"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
@@ -460,16 +504,16 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -500,25 +544,33 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1">
-        <v>0.63</v>
+        <v>0.23</v>
       </c>
       <c r="C3">
-        <v>0.55000000000000004</v>
+        <v>0.15</v>
       </c>
       <c r="D3" s="1">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+        <v>0.23</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -530,13 +582,11 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="1">
-        <v>0.5</v>
-      </c>
+      <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -544,12 +594,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -558,29 +606,15 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="1">
-        <v>11168740229752.301</v>
-      </c>
-      <c r="C7" s="1">
-        <v>2809964477228.5698</v>
-      </c>
-      <c r="D7" s="1">
-        <v>885947882474.34705</v>
-      </c>
-      <c r="E7" s="1">
-        <v>2047930808282.8701</v>
-      </c>
-      <c r="F7" s="1">
-        <v>678050449956.56201</v>
-      </c>
-      <c r="G7" s="1">
-        <v>402130783771.20001</v>
-      </c>
-      <c r="H7" s="1">
-        <v>5979225211702.6504</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
@@ -591,6 +625,243 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>88943</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12">
+        <v>88943</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>66129</v>
+      </c>
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13">
+        <v>66129</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>126760</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14">
+        <v>126760</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>103659</v>
+      </c>
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15">
+        <v>103659</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>62918</v>
+      </c>
+      <c r="D16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16">
+        <v>62918</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>55195</v>
+      </c>
+      <c r="D17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17">
+        <v>55195</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>57294</v>
+      </c>
+      <c r="D18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18">
+        <v>57294</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <f>SUM(B12:B18)</f>
+        <v>560898</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23">
+        <v>89007</v>
+      </c>
+      <c r="D23">
+        <v>148817</v>
+      </c>
+      <c r="F23" s="3">
+        <v>28758.48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24">
+        <v>66162</v>
+      </c>
+      <c r="D24">
+        <v>21890</v>
+      </c>
+      <c r="F24" s="3">
+        <v>11299.32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25">
+        <v>126835</v>
+      </c>
+      <c r="D25">
+        <v>3315</v>
+      </c>
+      <c r="F25" s="3">
+        <v>1250.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26">
+        <v>103721</v>
+      </c>
+      <c r="D26">
+        <v>6437</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1287.8599999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27">
+        <v>62940</v>
+      </c>
+      <c r="D27">
+        <v>225317</v>
+      </c>
+      <c r="F27" s="3">
+        <v>91553.09</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28">
+        <v>55230</v>
+      </c>
+      <c r="D28">
+        <v>120991</v>
+      </c>
+      <c r="F28" s="3">
+        <v>25836.98</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29">
+        <v>57322</v>
+      </c>
+      <c r="D29">
+        <v>34450</v>
+      </c>
+      <c r="F29" s="3">
+        <v>5946.97</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <f>SUM(B23:B29)</f>
+        <v>561217</v>
+      </c>
+      <c r="D31">
+        <f>SUM(D23:D29)</f>
+        <v>561217</v>
+      </c>
+      <c r="E31" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" s="4">
+        <f>SUM(F22:F29)</f>
+        <v>165933.20000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
+        <v>21</v>
+      </c>
+      <c r="F32" s="5">
+        <f>SUM(F31/3)</f>
+        <v>55311.066666666673</v>
+      </c>
+    </row>
+    <row r="33" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E33" t="s">
+        <v>22</v>
+      </c>
+      <c r="F33" s="5">
+        <f>SUM(F31/91)</f>
+        <v>1823.4417582417584</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
